--- a/nodes_source_analyses/energy/transport/transport_truck_using_lng_mix.converter.xlsx
+++ b/nodes_source_analyses/energy/transport/transport_truck_using_lng_mix.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77027DD0-35FF-ED4F-B9F1-AF1BF7E7FA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26900" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30080" windowHeight="16100" tabRatio="762" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -20,7 +21,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="exchange_rate_2011_2010">#REF!</definedName>
@@ -37,10 +37,20 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="119">
   <si>
     <t>Source</t>
   </si>
@@ -380,9 +390,6 @@
     <t>mln</t>
   </si>
   <si>
-    <t>Note: Eurostat freight transport excludes all vehicles &lt; 3.5 tonne. Since vans are included in the truck category in the ETM, we calculated the weighted efficiency</t>
-  </si>
-  <si>
     <t>truck tonne kms</t>
   </si>
   <si>
@@ -399,23 +406,42 @@
   </si>
   <si>
     <t>Note: took average of CNG and GTL</t>
+  </si>
+  <si>
+    <t>Note: vans are no longer part of trucks in the ETM</t>
+  </si>
+  <si>
+    <t>Weighted average is therefore no longer used</t>
+  </si>
+  <si>
+    <t>Only truck data is used</t>
+  </si>
+  <si>
+    <t>Note: Eurostat freight transport excludes all vehicles &lt; 3.5 tonne.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000000000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -933,472 +959,474 @@
   </borders>
   <cellStyleXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="247">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1655,6 +1683,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1676,7 +1707,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1720,7 +1757,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1764,7 +1807,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1808,7 +1857,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1846,7 +1901,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1884,7 +1945,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1922,7 +1989,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1960,7 +2033,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1998,7 +2077,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2132,27 +2217,6 @@
       <sheetData sheetId="45" refreshError="1"/>
       <sheetData sheetId="46" refreshError="1"/>
       <sheetData sheetId="47" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover sheet"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Research data"/>
-      <sheetName val="Sources"/>
-      <sheetName val="Notes"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2479,8 +2543,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
@@ -2489,7 +2553,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
@@ -2497,24 +2561,24 @@
     <col min="4" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="24" customFormat="1">
       <c r="A1" s="22"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -2523,7 +2587,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>25</v>
@@ -2532,7 +2596,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>13</v>
@@ -2541,29 +2605,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="75" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="76"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="77" t="s">
         <v>27</v>
@@ -2572,33 +2636,33 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="77"/>
       <c r="C12" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="77"/>
       <c r="C13" s="80" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="77"/>
       <c r="C14" s="78" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="77" t="s">
         <v>32</v>
@@ -2607,56 +2671,56 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="77"/>
       <c r="C17" s="82" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="77"/>
       <c r="C18" s="83" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="77"/>
       <c r="C19" s="84" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="85"/>
       <c r="C20" s="86" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="85"/>
       <c r="C21" s="87" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="85"/>
       <c r="C22" s="88" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="85"/>
       <c r="C23" s="89" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B2">
     <sortCondition descending="1" ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2665,17 +2729,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="4.1640625" style="32" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="32" customWidth="1"/>
@@ -2690,50 +2754,50 @@
     <col min="11" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
       <c r="F1" s="33"/>
       <c r="G1" s="33"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="130" t="s">
+    <row r="2" spans="2:11">
+      <c r="B2" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="138"/>
       <c r="F2" s="33"/>
       <c r="G2" s="33"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="133"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+    <row r="3" spans="2:11">
+      <c r="B3" s="139"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="133"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="135"/>
+    <row r="4" spans="2:11">
+      <c r="B4" s="139"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="33"/>
       <c r="G4" s="33"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="136"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="138"/>
+    <row r="5" spans="2:11">
+      <c r="B5" s="142"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="144"/>
       <c r="F5" s="33"/>
       <c r="G5" s="33"/>
     </row>
-    <row r="6" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="17" thickBot="1">
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="34"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -2744,7 +2808,7 @@
       <c r="I7" s="17"/>
       <c r="J7" s="35"/>
     </row>
-    <row r="8" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" s="21" customFormat="1">
       <c r="B8" s="96"/>
       <c r="C8" s="14" t="s">
         <v>18</v>
@@ -2765,7 +2829,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="2:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" s="21" customFormat="1">
       <c r="B9" s="20"/>
       <c r="C9" s="12"/>
       <c r="D9" s="29"/>
@@ -2776,7 +2840,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="2:11" s="21" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" s="21" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="20"/>
       <c r="C10" s="12" t="s">
         <v>45</v>
@@ -2789,7 +2853,7 @@
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="2:11" s="21" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" s="21" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="20"/>
       <c r="C11" s="122" t="s">
         <v>81</v>
@@ -2799,7 +2863,7 @@
       </c>
       <c r="E11" s="39">
         <f>'Research data'!F7</f>
-        <v>0.69010554155563841</v>
+        <v>1.0792748526139753</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="108" t="s">
@@ -2809,7 +2873,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="37"/>
       <c r="C12" s="33"/>
       <c r="D12" s="98"/>
@@ -2821,7 +2885,7 @@
       <c r="J12" s="95"/>
       <c r="K12" s="33"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="37"/>
       <c r="C13" s="12" t="s">
         <v>5</v>
@@ -2834,7 +2898,7 @@
       <c r="I13" s="62"/>
       <c r="J13" s="95"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="37"/>
       <c r="C14" s="36" t="s">
         <v>21</v>
@@ -2854,7 +2918,7 @@
       <c r="I14" s="102"/>
       <c r="J14" s="95"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="37"/>
       <c r="C15" s="108" t="s">
         <v>20</v>
@@ -2874,7 +2938,7 @@
       <c r="J15" s="95"/>
       <c r="K15" s="33"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
@@ -2885,7 +2949,7 @@
       <c r="I16" s="41"/>
       <c r="J16" s="42"/>
     </row>
-    <row r="21" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E5"/>
@@ -2896,8 +2960,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:J13"/>
@@ -2906,7 +2970,7 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="3.5" style="43" customWidth="1"/>
     <col min="3" max="3" width="35.83203125" style="43" customWidth="1"/>
@@ -2917,8 +2981,8 @@
     <col min="8" max="16384" width="10.83203125" style="43"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="17" thickBot="1"/>
+    <row r="3" spans="2:10">
       <c r="B3" s="44"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
@@ -2926,7 +2990,7 @@
       <c r="F3" s="45"/>
       <c r="G3" s="45"/>
     </row>
-    <row r="4" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" s="21" customFormat="1">
       <c r="B4" s="20"/>
       <c r="C4" s="90" t="s">
         <v>41</v>
@@ -2947,7 +3011,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" ht="18" customHeight="1">
       <c r="B5" s="46"/>
       <c r="C5" s="53"/>
       <c r="D5" s="47"/>
@@ -2956,7 +3020,7 @@
       <c r="G5" s="51"/>
       <c r="J5" s="58"/>
     </row>
-    <row r="6" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="46"/>
       <c r="C6" s="11" t="s">
         <v>45</v>
@@ -2968,7 +3032,7 @@
       <c r="H6" s="47"/>
       <c r="J6" s="57"/>
     </row>
-    <row r="7" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="17" thickBot="1">
       <c r="B7" s="46"/>
       <c r="C7" s="109" t="s">
         <v>81</v>
@@ -2979,16 +3043,16 @@
       <c r="E7" s="91"/>
       <c r="F7" s="115">
         <f>H7</f>
-        <v>0.69010554155563841</v>
+        <v>1.0792748526139753</v>
       </c>
       <c r="G7" s="51"/>
       <c r="H7" s="115">
         <f>Notes!E147</f>
-        <v>0.69010554155563841</v>
+        <v>1.0792748526139753</v>
       </c>
       <c r="J7" s="60"/>
     </row>
-    <row r="8" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="17" thickBot="1">
       <c r="B8" s="46"/>
       <c r="C8" s="54" t="s">
         <v>3</v>
@@ -3008,7 +3072,7 @@
       </c>
       <c r="J8" s="60"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="46"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -3018,7 +3082,7 @@
       <c r="H9" s="47"/>
       <c r="J9" s="50"/>
     </row>
-    <row r="10" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" ht="17" thickBot="1">
       <c r="B10" s="46"/>
       <c r="C10" s="11" t="s">
         <v>42</v>
@@ -3030,7 +3094,7 @@
       <c r="H10" s="47"/>
       <c r="J10" s="58"/>
     </row>
-    <row r="11" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="17" thickBot="1">
       <c r="B11" s="46"/>
       <c r="C11" s="94" t="s">
         <v>44</v>
@@ -3052,7 +3116,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="17" thickBot="1">
       <c r="B12" s="46"/>
       <c r="C12" s="94" t="s">
         <v>43</v>
@@ -3068,7 +3132,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="J13" s="60"/>
     </row>
   </sheetData>
@@ -3078,8 +3142,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:J22"/>
@@ -3088,7 +3152,7 @@
       <selection activeCell="A15" sqref="A15:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.5" style="63" customWidth="1"/>
     <col min="2" max="2" width="4.1640625" style="63" customWidth="1"/>
@@ -3102,8 +3166,8 @@
     <col min="11" max="16384" width="33.1640625" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
@@ -3114,7 +3178,7 @@
       <c r="I2" s="70"/>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="67"/>
       <c r="C3" s="12" t="s">
         <v>36</v>
@@ -3127,7 +3191,7 @@
       <c r="I3" s="15"/>
       <c r="J3" s="62"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="67"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -3138,7 +3202,7 @@
       <c r="I4" s="71"/>
       <c r="J4" s="62"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="72"/>
       <c r="C5" s="14" t="s">
         <v>15</v>
@@ -3165,7 +3229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="B6" s="67"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -3176,10 +3240,10 @@
       <c r="I6" s="15"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="67"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10">
       <c r="B8" s="67"/>
       <c r="C8" s="111" t="s">
         <v>49</v>
@@ -3206,7 +3270,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10">
       <c r="B9" s="67"/>
       <c r="C9" s="111" t="s">
         <v>3</v>
@@ -3219,7 +3283,7 @@
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10">
       <c r="B10" s="67"/>
       <c r="C10" s="73" t="s">
         <v>6</v>
@@ -3232,7 +3296,7 @@
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10">
       <c r="B11" s="67"/>
       <c r="D11" s="62"/>
       <c r="E11" s="62"/>
@@ -3241,7 +3305,7 @@
       <c r="H11" s="105"/>
       <c r="I11" s="62"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10">
       <c r="B12" s="67"/>
       <c r="C12" s="73"/>
       <c r="D12" s="62"/>
@@ -3251,7 +3315,7 @@
       <c r="H12" s="68"/>
       <c r="I12" s="62"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:10">
       <c r="B13" s="67"/>
       <c r="C13" s="111" t="s">
         <v>51</v>
@@ -3263,7 +3327,7 @@
       <c r="H13" s="68"/>
       <c r="I13" s="62"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="67"/>
       <c r="C14" s="73"/>
       <c r="D14" s="62"/>
@@ -3274,87 +3338,87 @@
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
     </row>
-    <row r="15" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="139" t="s">
+    <row r="15" spans="2:10" s="130" customFormat="1">
+      <c r="C15" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="139" t="s">
+      <c r="D15" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="139" t="s">
+      <c r="E15" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="139">
+      <c r="G15" s="130">
         <v>2015</v>
       </c>
-      <c r="H15" s="140" t="s">
+      <c r="H15" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="140" t="s">
+      <c r="I15" s="131" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="139" t="s">
+    <row r="16" spans="2:10" s="130" customFormat="1">
+      <c r="C16" s="130" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="139" t="s">
+      <c r="D16" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="139" t="s">
+      <c r="E16" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="139">
+      <c r="G16" s="130">
         <v>2015</v>
       </c>
-      <c r="H16" s="140" t="s">
+      <c r="H16" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="I16" s="140" t="s">
+      <c r="I16" s="131" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="139" t="s">
+    <row r="17" spans="2:10" s="130" customFormat="1">
+      <c r="C17" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="139" t="s">
+      <c r="D17" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="E17" s="139" t="s">
+      <c r="E17" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="139">
+      <c r="G17" s="130">
         <v>2016</v>
       </c>
-      <c r="H17" s="140" t="s">
+      <c r="H17" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="140" t="s">
+      <c r="I17" s="131" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="139" t="s">
+    <row r="18" spans="2:10" s="130" customFormat="1">
+      <c r="C18" s="130" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="139" t="s">
+      <c r="D18" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="139" t="s">
+      <c r="E18" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="139">
+      <c r="G18" s="130">
         <v>2016</v>
       </c>
-      <c r="H18" s="140" t="s">
+      <c r="H18" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="I18" s="140" t="s">
+      <c r="I18" s="131" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="67"/>
       <c r="D19" s="62"/>
       <c r="E19" s="62"/>
@@ -3364,7 +3428,7 @@
       <c r="I19" s="62"/>
       <c r="J19" s="62"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20" s="67"/>
       <c r="D20" s="62"/>
       <c r="E20" s="62"/>
@@ -3374,7 +3438,7 @@
       <c r="I20" s="62"/>
       <c r="J20" s="62"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10">
       <c r="B21" s="67"/>
       <c r="D21" s="62"/>
       <c r="E21" s="62"/>
@@ -3384,7 +3448,7 @@
       <c r="I21" s="104"/>
       <c r="J21" s="103"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10">
       <c r="D22" s="106"/>
       <c r="E22" s="106"/>
       <c r="H22" s="107"/>
@@ -3396,17 +3460,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:M152"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="I123" sqref="I123"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="L130" sqref="L130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="3.5" style="63" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="63" customWidth="1"/>
@@ -3418,8 +3482,8 @@
     <col min="12" max="16384" width="10.83203125" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="17" thickBot="1"/>
+    <row r="2" spans="1:13">
       <c r="B2" s="64"/>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
@@ -3433,7 +3497,7 @@
       <c r="L2" s="65"/>
       <c r="M2" s="65"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="21"/>
       <c r="B3" s="96"/>
       <c r="C3" s="14" t="s">
@@ -3452,7 +3516,7 @@
       <c r="L3" s="66"/>
       <c r="M3" s="66"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="B4" s="67"/>
       <c r="C4" s="62"/>
       <c r="D4" s="62"/>
@@ -3466,7 +3530,7 @@
       <c r="L4" s="62"/>
       <c r="M4" s="62"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="B5" s="67"/>
       <c r="D5" s="62"/>
       <c r="E5" s="62"/>
@@ -3479,7 +3543,7 @@
       <c r="L5" s="62"/>
       <c r="M5" s="62"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="B6" s="67"/>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -3493,7 +3557,7 @@
       <c r="L6" s="62"/>
       <c r="M6" s="62"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="B7" s="67"/>
       <c r="D7" s="62"/>
       <c r="G7" s="62"/>
@@ -3504,7 +3568,7 @@
       <c r="L7" s="62"/>
       <c r="M7" s="62"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="B8" s="67"/>
       <c r="C8" s="62"/>
       <c r="D8" s="62"/>
@@ -3518,7 +3582,7 @@
       <c r="L8" s="62"/>
       <c r="M8" s="62"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="B9" s="67"/>
       <c r="C9" s="62"/>
       <c r="D9" s="62"/>
@@ -3532,7 +3596,7 @@
       <c r="L9" s="62"/>
       <c r="M9" s="62"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="B10" s="67"/>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
@@ -3546,7 +3610,7 @@
       <c r="L10" s="62"/>
       <c r="M10" s="62"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="B11" s="67"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
@@ -3560,7 +3624,7 @@
       <c r="L11" s="62"/>
       <c r="M11" s="62"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="B12" s="67"/>
       <c r="C12" s="113" t="s">
         <v>49</v>
@@ -3582,7 +3646,7 @@
       <c r="L12" s="62"/>
       <c r="M12" s="62"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="B13" s="67"/>
       <c r="C13" s="62"/>
       <c r="D13" s="62"/>
@@ -3601,7 +3665,7 @@
       <c r="L13" s="62"/>
       <c r="M13" s="62"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="B14" s="67"/>
       <c r="C14" s="113" t="s">
         <v>54</v>
@@ -3617,7 +3681,7 @@
       <c r="L14" s="62"/>
       <c r="M14" s="62"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="B15" s="67"/>
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
@@ -3631,7 +3695,7 @@
       <c r="L15" s="62"/>
       <c r="M15" s="62"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13">
       <c r="B16" s="67"/>
       <c r="C16" s="62"/>
       <c r="D16" s="62"/>
@@ -3645,7 +3709,7 @@
       <c r="L16" s="62"/>
       <c r="M16" s="62"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13">
       <c r="B17" s="67"/>
       <c r="C17" s="62"/>
       <c r="D17" s="62"/>
@@ -3659,7 +3723,7 @@
       <c r="L17" s="62"/>
       <c r="M17" s="62"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13">
       <c r="B18" s="67"/>
       <c r="C18" s="62"/>
       <c r="D18" s="62"/>
@@ -3673,7 +3737,7 @@
       <c r="L18" s="62"/>
       <c r="M18" s="62"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13">
       <c r="B19" s="67"/>
       <c r="C19" s="62"/>
       <c r="D19" s="62"/>
@@ -3687,7 +3751,7 @@
       <c r="L19" s="62"/>
       <c r="M19" s="62"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13">
       <c r="B20" s="67"/>
       <c r="C20" s="62"/>
       <c r="D20" s="62"/>
@@ -3701,7 +3765,7 @@
       <c r="L20" s="62"/>
       <c r="M20" s="62"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13">
       <c r="B21" s="67"/>
       <c r="C21" s="62"/>
       <c r="D21" s="62"/>
@@ -3715,7 +3779,7 @@
       <c r="L21" s="62"/>
       <c r="M21" s="62"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:13">
       <c r="B22" s="67"/>
       <c r="C22" s="62"/>
       <c r="D22" s="62"/>
@@ -3729,7 +3793,7 @@
       <c r="L22" s="62"/>
       <c r="M22" s="62"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:13">
       <c r="B23" s="67"/>
       <c r="C23" s="62"/>
       <c r="D23" s="62"/>
@@ -3743,7 +3807,7 @@
       <c r="L23" s="62"/>
       <c r="M23" s="62"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:13">
       <c r="B24" s="67"/>
       <c r="C24" s="62"/>
       <c r="D24" s="62"/>
@@ -3757,7 +3821,7 @@
       <c r="L24" s="62"/>
       <c r="M24" s="62"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:13">
       <c r="B25" s="67"/>
       <c r="C25" s="62"/>
       <c r="D25" s="62"/>
@@ -3771,7 +3835,7 @@
       <c r="L25" s="62"/>
       <c r="M25" s="62"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:13">
       <c r="B26" s="67"/>
       <c r="C26" s="62"/>
       <c r="D26" s="62"/>
@@ -3785,7 +3849,7 @@
       <c r="L26" s="62"/>
       <c r="M26" s="62"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:13">
       <c r="B27" s="67"/>
       <c r="D27" s="62"/>
       <c r="G27" s="62"/>
@@ -3796,7 +3860,7 @@
       <c r="L27" s="62"/>
       <c r="M27" s="62"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:13">
       <c r="B28" s="67"/>
       <c r="C28" s="113" t="s">
         <v>56</v>
@@ -3816,7 +3880,7 @@
       <c r="L28" s="62"/>
       <c r="M28" s="62"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:13">
       <c r="B29" s="67"/>
       <c r="C29" s="62"/>
       <c r="D29" s="62"/>
@@ -3830,7 +3894,7 @@
       <c r="L29" s="62"/>
       <c r="M29" s="62"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13">
       <c r="B30" s="67"/>
       <c r="C30" s="113" t="s">
         <v>54</v>
@@ -3846,7 +3910,7 @@
       <c r="L30" s="62"/>
       <c r="M30" s="62"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13">
       <c r="B31" s="67"/>
       <c r="C31" s="62"/>
       <c r="D31" s="62"/>
@@ -3860,7 +3924,7 @@
       <c r="L31" s="62"/>
       <c r="M31" s="62"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13">
       <c r="B32" s="67"/>
       <c r="C32" s="62"/>
       <c r="D32" s="62"/>
@@ -3874,7 +3938,7 @@
       <c r="L32" s="62"/>
       <c r="M32" s="62"/>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13">
       <c r="B33" s="67"/>
       <c r="C33" s="62"/>
       <c r="D33" s="62"/>
@@ -3888,7 +3952,7 @@
       <c r="L33" s="62"/>
       <c r="M33" s="62"/>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13">
       <c r="B34" s="67"/>
       <c r="C34" s="62"/>
       <c r="D34" s="62"/>
@@ -3902,7 +3966,7 @@
       <c r="L34" s="62"/>
       <c r="M34" s="62"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13">
       <c r="B35" s="67"/>
       <c r="C35" s="62"/>
       <c r="D35" s="62"/>
@@ -3916,7 +3980,7 @@
       <c r="L35" s="62"/>
       <c r="M35" s="62"/>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13">
       <c r="B36" s="67"/>
       <c r="C36" s="62"/>
       <c r="D36" s="62"/>
@@ -3930,7 +3994,7 @@
       <c r="L36" s="62"/>
       <c r="M36" s="62"/>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13">
       <c r="B37" s="67"/>
       <c r="C37" s="62"/>
       <c r="D37" s="62"/>
@@ -3944,7 +4008,7 @@
       <c r="L37" s="62"/>
       <c r="M37" s="62"/>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13">
       <c r="B38" s="67"/>
       <c r="D38" s="62"/>
       <c r="E38" s="62"/>
@@ -3957,7 +4021,7 @@
       <c r="L38" s="62"/>
       <c r="M38" s="62"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13">
       <c r="B39" s="67"/>
       <c r="C39" s="62"/>
       <c r="D39" s="62"/>
@@ -3971,7 +4035,7 @@
       <c r="L39" s="62"/>
       <c r="M39" s="62"/>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13">
       <c r="B40" s="67"/>
       <c r="C40" s="62"/>
       <c r="D40" s="62"/>
@@ -3985,7 +4049,7 @@
       <c r="L40" s="62"/>
       <c r="M40" s="62"/>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13">
       <c r="B41" s="67"/>
       <c r="C41" s="62"/>
       <c r="D41" s="62"/>
@@ -3999,7 +4063,7 @@
       <c r="L41" s="62"/>
       <c r="M41" s="62"/>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13">
       <c r="B42" s="67"/>
       <c r="C42" s="62"/>
       <c r="D42" s="62"/>
@@ -4013,7 +4077,7 @@
       <c r="L42" s="62"/>
       <c r="M42" s="62"/>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13">
       <c r="B43" s="67"/>
       <c r="C43" s="62"/>
       <c r="D43" s="62"/>
@@ -4027,7 +4091,7 @@
       <c r="L43" s="62"/>
       <c r="M43" s="62"/>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13">
       <c r="B44" s="67"/>
       <c r="C44" s="62"/>
       <c r="D44" s="62"/>
@@ -4041,7 +4105,7 @@
       <c r="L44" s="62"/>
       <c r="M44" s="62"/>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13">
       <c r="B45" s="67"/>
       <c r="C45" s="62"/>
       <c r="D45" s="62"/>
@@ -4055,7 +4119,7 @@
       <c r="L45" s="62"/>
       <c r="M45" s="62"/>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13">
       <c r="B46" s="67"/>
       <c r="C46" s="113" t="s">
         <v>3</v>
@@ -4075,7 +4139,7 @@
       <c r="L46" s="62"/>
       <c r="M46" s="62"/>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13">
       <c r="B47" s="67"/>
       <c r="C47" s="62"/>
       <c r="D47" s="62"/>
@@ -4089,7 +4153,7 @@
       <c r="L47" s="62"/>
       <c r="M47" s="62"/>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13">
       <c r="B48" s="67"/>
       <c r="C48" s="113" t="s">
         <v>54</v>
@@ -4105,7 +4169,7 @@
       <c r="L48" s="62"/>
       <c r="M48" s="62"/>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13">
       <c r="B49" s="67"/>
       <c r="C49" s="62"/>
       <c r="D49" s="62"/>
@@ -4119,7 +4183,7 @@
       <c r="L49" s="62"/>
       <c r="M49" s="62"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13">
       <c r="B50" s="67"/>
       <c r="C50" s="62"/>
       <c r="D50" s="62"/>
@@ -4133,7 +4197,7 @@
       <c r="L50" s="62"/>
       <c r="M50" s="62"/>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13">
       <c r="B51" s="67"/>
       <c r="C51" s="62"/>
       <c r="D51" s="62"/>
@@ -4147,7 +4211,7 @@
       <c r="L51" s="62"/>
       <c r="M51" s="62"/>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13">
       <c r="B52" s="67"/>
       <c r="C52" s="62"/>
       <c r="D52" s="62"/>
@@ -4161,7 +4225,7 @@
       <c r="L52" s="62"/>
       <c r="M52" s="62"/>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13">
       <c r="B53" s="67"/>
       <c r="C53" s="62"/>
       <c r="D53" s="62"/>
@@ -4175,7 +4239,7 @@
       <c r="L53" s="62"/>
       <c r="M53" s="62"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13">
       <c r="B54" s="67"/>
       <c r="C54" s="62"/>
       <c r="D54" s="62"/>
@@ -4189,7 +4253,7 @@
       <c r="L54" s="62"/>
       <c r="M54" s="62"/>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13">
       <c r="B55" s="67"/>
       <c r="C55" s="62"/>
       <c r="D55" s="62"/>
@@ -4203,7 +4267,7 @@
       <c r="L55" s="62"/>
       <c r="M55" s="62"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13">
       <c r="B56" s="67"/>
       <c r="C56" s="62"/>
       <c r="D56" s="62"/>
@@ -4217,7 +4281,7 @@
       <c r="L56" s="62"/>
       <c r="M56" s="62"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:13">
       <c r="B57" s="67"/>
       <c r="C57" s="62"/>
       <c r="D57" s="62"/>
@@ -4231,7 +4295,7 @@
       <c r="L57" s="62"/>
       <c r="M57" s="62"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:13">
       <c r="B58" s="67"/>
       <c r="C58" s="62"/>
       <c r="D58" s="62"/>
@@ -4245,7 +4309,7 @@
       <c r="L58" s="62"/>
       <c r="M58" s="62"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13">
       <c r="B59" s="67"/>
       <c r="C59" s="62"/>
       <c r="D59" s="62"/>
@@ -4259,7 +4323,7 @@
       <c r="L59" s="62"/>
       <c r="M59" s="62"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:13">
       <c r="B60" s="67"/>
       <c r="C60" s="62"/>
       <c r="D60" s="62"/>
@@ -4277,7 +4341,7 @@
       </c>
       <c r="M60" s="62"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:13">
       <c r="B61" s="67"/>
       <c r="C61" s="62"/>
       <c r="D61" s="62"/>
@@ -4295,7 +4359,7 @@
       <c r="L61" s="62"/>
       <c r="M61" s="62"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:13">
       <c r="B62" s="67"/>
       <c r="C62" s="62"/>
       <c r="D62" s="62"/>
@@ -4314,7 +4378,7 @@
       <c r="L62" s="62"/>
       <c r="M62" s="62"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:13">
       <c r="B63" s="67"/>
       <c r="C63" s="62"/>
       <c r="D63" s="62"/>
@@ -4332,7 +4396,7 @@
       <c r="L63" s="62"/>
       <c r="M63" s="62"/>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:13">
       <c r="B64" s="67"/>
       <c r="C64" s="62"/>
       <c r="D64" s="62"/>
@@ -4346,7 +4410,7 @@
       <c r="L64" s="62"/>
       <c r="M64" s="62"/>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:13">
       <c r="B65" s="67"/>
       <c r="C65" s="62"/>
       <c r="D65" s="62"/>
@@ -4372,7 +4436,7 @@
       <c r="L65" s="62"/>
       <c r="M65" s="62"/>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:13">
       <c r="B66" s="67"/>
       <c r="C66" s="62"/>
       <c r="D66" s="62"/>
@@ -4392,7 +4456,7 @@
       <c r="L66" s="62"/>
       <c r="M66" s="62"/>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13">
       <c r="B67" s="67"/>
       <c r="C67" s="62"/>
       <c r="D67" s="62"/>
@@ -4411,7 +4475,7 @@
       <c r="L67" s="62"/>
       <c r="M67" s="62"/>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:13">
       <c r="B68" s="67"/>
       <c r="C68" s="62"/>
       <c r="D68" s="62"/>
@@ -4430,7 +4494,7 @@
       <c r="L68" s="62"/>
       <c r="M68" s="62"/>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:13">
       <c r="B69" s="67"/>
       <c r="C69" s="62"/>
       <c r="D69" s="62"/>
@@ -4449,7 +4513,7 @@
       <c r="L69" s="62"/>
       <c r="M69" s="62"/>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:13">
       <c r="B70" s="67"/>
       <c r="C70" s="62"/>
       <c r="D70" s="62"/>
@@ -4468,7 +4532,7 @@
       <c r="L70" s="62"/>
       <c r="M70" s="62"/>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:13">
       <c r="B71" s="67"/>
       <c r="C71" s="62"/>
       <c r="D71" s="62"/>
@@ -4487,7 +4551,7 @@
       <c r="L71" s="62"/>
       <c r="M71" s="62"/>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:13">
       <c r="B72" s="67"/>
       <c r="C72" s="62"/>
       <c r="D72" s="62"/>
@@ -4507,7 +4571,7 @@
       <c r="L72" s="62"/>
       <c r="M72" s="62"/>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13">
       <c r="B73" s="67"/>
       <c r="C73" s="62"/>
       <c r="D73" s="62"/>
@@ -4526,7 +4590,7 @@
       <c r="L73" s="62"/>
       <c r="M73" s="62"/>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:13">
       <c r="B74" s="67"/>
       <c r="C74" s="62"/>
       <c r="D74" s="62"/>
@@ -4540,7 +4604,7 @@
       <c r="L74" s="62"/>
       <c r="M74" s="62"/>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:13">
       <c r="B75" s="67"/>
       <c r="C75" s="101"/>
       <c r="D75" s="62"/>
@@ -4554,7 +4618,7 @@
       <c r="L75" s="62"/>
       <c r="M75" s="62"/>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:13">
       <c r="B76" s="67"/>
       <c r="C76" s="101"/>
       <c r="D76" s="62"/>
@@ -4568,7 +4632,7 @@
       <c r="L76" s="62"/>
       <c r="M76" s="62"/>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13">
       <c r="B77" s="67"/>
       <c r="C77" s="62"/>
       <c r="D77" s="62"/>
@@ -4582,7 +4646,7 @@
       <c r="L77" s="62"/>
       <c r="M77" s="62"/>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:13">
       <c r="B78" s="67"/>
       <c r="C78" s="62"/>
       <c r="D78" s="62"/>
@@ -4596,7 +4660,7 @@
       <c r="L78" s="62"/>
       <c r="M78" s="62"/>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:13">
       <c r="B79" s="67"/>
       <c r="C79" s="62"/>
       <c r="D79" s="62"/>
@@ -4610,7 +4674,7 @@
       <c r="L79" s="62"/>
       <c r="M79" s="62"/>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13">
       <c r="B80" s="67"/>
       <c r="C80" s="62"/>
       <c r="D80" s="62"/>
@@ -4624,7 +4688,7 @@
       <c r="L80" s="62"/>
       <c r="M80" s="62"/>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:13">
       <c r="B81" s="67"/>
       <c r="C81" s="62"/>
       <c r="D81" s="62"/>
@@ -4638,7 +4702,7 @@
       <c r="L81" s="62"/>
       <c r="M81" s="62"/>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:13">
       <c r="B82" s="67"/>
       <c r="C82" s="62"/>
       <c r="D82" s="62"/>
@@ -4652,7 +4716,7 @@
       <c r="L82" s="62"/>
       <c r="M82" s="62"/>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:13">
       <c r="B83" s="67"/>
       <c r="C83" s="62"/>
       <c r="D83" s="62"/>
@@ -4666,7 +4730,7 @@
       <c r="L83" s="62"/>
       <c r="M83" s="62"/>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:13">
       <c r="B84" s="67"/>
       <c r="C84" s="62"/>
       <c r="D84" s="62"/>
@@ -4680,7 +4744,7 @@
       <c r="L84" s="62"/>
       <c r="M84" s="62"/>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:13">
       <c r="B85" s="67"/>
       <c r="C85" s="62"/>
       <c r="D85" s="62"/>
@@ -4694,7 +4758,7 @@
       <c r="L85" s="62"/>
       <c r="M85" s="62"/>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:13">
       <c r="B86" s="67"/>
       <c r="C86" s="62"/>
       <c r="D86" s="62"/>
@@ -4708,7 +4772,7 @@
       <c r="L86" s="62"/>
       <c r="M86" s="62"/>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:13">
       <c r="B87" s="67"/>
       <c r="C87" s="62"/>
       <c r="D87" s="62"/>
@@ -4722,7 +4786,7 @@
       <c r="L87" s="62"/>
       <c r="M87" s="62"/>
     </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:13">
       <c r="B88" s="67"/>
       <c r="C88" s="101"/>
       <c r="D88" s="62"/>
@@ -4736,7 +4800,7 @@
       <c r="L88" s="62"/>
       <c r="M88" s="62"/>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:13">
       <c r="B89" s="67"/>
       <c r="C89" s="101"/>
       <c r="D89" s="62"/>
@@ -4750,7 +4814,7 @@
       <c r="L89" s="62"/>
       <c r="M89" s="62"/>
     </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:13">
       <c r="B90" s="67"/>
       <c r="C90" s="62"/>
       <c r="D90" s="62"/>
@@ -4764,7 +4828,7 @@
       <c r="L90" s="62"/>
       <c r="M90" s="62"/>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:13">
       <c r="B91" s="67"/>
       <c r="C91" s="62"/>
       <c r="D91" s="62"/>
@@ -4778,7 +4842,7 @@
       <c r="L91" s="62"/>
       <c r="M91" s="62"/>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:13">
       <c r="B92" s="67"/>
       <c r="C92" s="62"/>
       <c r="D92" s="62"/>
@@ -4792,7 +4856,7 @@
       <c r="L92" s="62"/>
       <c r="M92" s="62"/>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:13">
       <c r="B93" s="67"/>
       <c r="C93" s="62"/>
       <c r="D93" s="62"/>
@@ -4806,7 +4870,7 @@
       <c r="L93" s="62"/>
       <c r="M93" s="62"/>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:13">
       <c r="B94" s="67"/>
       <c r="C94" s="62"/>
       <c r="D94" s="62"/>
@@ -4822,7 +4886,7 @@
       <c r="L94" s="62"/>
       <c r="M94" s="62"/>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:13">
       <c r="B95" s="67"/>
       <c r="C95" s="62"/>
       <c r="D95" s="62"/>
@@ -4836,7 +4900,7 @@
       <c r="L95" s="62"/>
       <c r="M95" s="62"/>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:13">
       <c r="B96" s="67"/>
       <c r="C96" s="62"/>
       <c r="D96" s="62"/>
@@ -4850,36 +4914,36 @@
       <c r="L96" s="62"/>
       <c r="M96" s="62"/>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:6">
       <c r="C98" s="106"/>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:6">
       <c r="F101" s="106"/>
     </row>
-    <row r="115" spans="2:10" s="123" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="2:10" s="123" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" spans="2:10" s="123" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="2:10" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="141"/>
-      <c r="G120" s="139" t="s">
+    <row r="115" spans="2:10" s="123" customFormat="1"/>
+    <row r="116" spans="2:10" s="123" customFormat="1"/>
+    <row r="117" spans="2:10" s="123" customFormat="1"/>
+    <row r="120" spans="2:10" s="130" customFormat="1" ht="17" thickBot="1">
+      <c r="B120" s="132"/>
+      <c r="G120" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="H120" s="139" t="s">
+      <c r="H120" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="I120" s="139" t="s">
+      <c r="I120" s="130" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="2:10" s="139" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="141"/>
-      <c r="C121" s="139" t="s">
+    <row r="121" spans="2:10" s="130" customFormat="1" ht="18" thickBot="1">
+      <c r="B121" s="132"/>
+      <c r="C121" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="F121" s="139" t="s">
+      <c r="F121" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="G121" s="139">
+      <c r="G121" s="130">
         <f>G129</f>
         <v>7546</v>
       </c>
@@ -4887,17 +4951,20 @@
         <f>E12</f>
         <v>8.4600000000000009</v>
       </c>
-      <c r="I121" s="142"/>
-    </row>
-    <row r="122" spans="2:10" s="139" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="141"/>
-      <c r="C122" s="139" t="s">
+      <c r="I121" s="133">
+        <f>1/H121</f>
+        <v>0.11820330969267138</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" s="130" customFormat="1" ht="18" thickBot="1">
+      <c r="B122" s="132"/>
+      <c r="C122" s="130" t="s">
         <v>103</v>
       </c>
-      <c r="F122" s="139" t="s">
+      <c r="F122" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="G122" s="139">
+      <c r="G122" s="130">
         <f>G131</f>
         <v>17292.2</v>
       </c>
@@ -4905,133 +4972,133 @@
         <f>(2.1+2.31)/2</f>
         <v>2.2050000000000001</v>
       </c>
-      <c r="I122" s="142"/>
-      <c r="J122" s="139" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="123" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="141"/>
-      <c r="C123" s="139" t="s">
+      <c r="I122" s="133"/>
+      <c r="J122" s="130" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" s="130" customFormat="1">
+      <c r="B123" s="132"/>
+      <c r="C123" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="F123" s="139" t="s">
+      <c r="F123" s="130" t="s">
         <v>106</v>
       </c>
-      <c r="H123" s="139">
+      <c r="H123" s="130">
         <f>((H122*G122)+(H121*G121))/(G121+G122)</f>
         <v>4.1053079933328505</v>
       </c>
-      <c r="I123" s="139">
+      <c r="I123" s="130">
         <f>1/H123</f>
         <v>0.24358708326489303</v>
       </c>
     </row>
-    <row r="124" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="141"/>
-    </row>
-    <row r="125" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="141"/>
-    </row>
-    <row r="126" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="141"/>
-    </row>
-    <row r="127" spans="2:10" s="139" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="141"/>
-    </row>
-    <row r="128" spans="2:10" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="141"/>
-    </row>
-    <row r="129" spans="2:12" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="141"/>
-      <c r="F129" s="139" t="s">
+    <row r="124" spans="2:10" s="130" customFormat="1">
+      <c r="B124" s="132"/>
+    </row>
+    <row r="125" spans="2:10" s="130" customFormat="1">
+      <c r="B125" s="132"/>
+    </row>
+    <row r="126" spans="2:10" s="130" customFormat="1">
+      <c r="B126" s="132"/>
+    </row>
+    <row r="127" spans="2:10" s="130" customFormat="1">
+      <c r="B127" s="132"/>
+    </row>
+    <row r="128" spans="2:10" s="130" customFormat="1" ht="17" thickBot="1">
+      <c r="B128" s="132"/>
+    </row>
+    <row r="129" spans="2:12" s="130" customFormat="1" ht="17" thickBot="1">
+      <c r="B129" s="132"/>
+      <c r="F129" s="130" t="s">
         <v>107</v>
       </c>
       <c r="G129" s="126">
         <v>7546</v>
       </c>
-      <c r="H129" s="139" t="s">
+      <c r="H129" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="J129" s="139" t="s">
+      <c r="J129" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="L129" s="139" t="s">
+      <c r="L129" s="145" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" s="130" customFormat="1" ht="17" thickBot="1">
+      <c r="B130" s="132"/>
+      <c r="F130" s="130" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="130" spans="2:12" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="141"/>
-      <c r="F130" s="139" t="s">
-        <v>110</v>
       </c>
       <c r="G130" s="126">
         <v>68900</v>
       </c>
-      <c r="H130" s="139" t="s">
+      <c r="H130" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="J130" s="139" t="s">
+      <c r="J130" s="130" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="2:12" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="141"/>
-      <c r="F131" s="139" t="s">
-        <v>111</v>
+    <row r="131" spans="2:12" s="130" customFormat="1" ht="17" thickBot="1">
+      <c r="B131" s="132"/>
+      <c r="F131" s="130" t="s">
+        <v>110</v>
       </c>
       <c r="G131" s="126">
         <v>17292.2</v>
       </c>
-      <c r="H131" s="139" t="s">
+      <c r="H131" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="J131" s="139" t="s">
+      <c r="J131" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="L131" s="139" t="s">
+      <c r="L131" s="130" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" s="130" customFormat="1" ht="17" thickBot="1">
+      <c r="B132" s="132"/>
+      <c r="F132" s="130" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="132" spans="2:12" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="141"/>
-      <c r="F132" s="139" t="s">
-        <v>113</v>
       </c>
       <c r="G132" s="126">
         <v>1469</v>
       </c>
-      <c r="H132" s="139" t="s">
+      <c r="H132" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="J132" s="139" t="s">
+      <c r="J132" s="130" t="s">
         <v>95</v>
       </c>
-      <c r="L132" s="139" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="133" spans="2:12" s="139" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="143"/>
-      <c r="G133" s="144"/>
-    </row>
-    <row r="134" spans="2:12" s="139" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="143"/>
-      <c r="G134" s="144"/>
-    </row>
-    <row r="135" spans="2:12" s="139" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="143"/>
-      <c r="G135" s="144"/>
-    </row>
-    <row r="136" spans="2:12" s="139" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="143"/>
-      <c r="G136" s="144"/>
-    </row>
-    <row r="137" spans="2:12" s="139" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="143"/>
-      <c r="G137" s="144"/>
-    </row>
-    <row r="138" spans="2:12" s="123" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L132" s="130" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" s="130" customFormat="1">
+      <c r="B133" s="134"/>
+      <c r="G133" s="135"/>
+    </row>
+    <row r="134" spans="2:12" s="130" customFormat="1">
+      <c r="B134" s="134"/>
+      <c r="G134" s="135"/>
+    </row>
+    <row r="135" spans="2:12" s="130" customFormat="1">
+      <c r="B135" s="134"/>
+      <c r="G135" s="135"/>
+    </row>
+    <row r="136" spans="2:12" s="130" customFormat="1">
+      <c r="B136" s="134"/>
+      <c r="G136" s="135"/>
+    </row>
+    <row r="137" spans="2:12" s="130" customFormat="1" ht="17" thickBot="1">
+      <c r="B137" s="134"/>
+      <c r="G137" s="135"/>
+    </row>
+    <row r="138" spans="2:12" s="123" customFormat="1" ht="17" thickBot="1">
       <c r="C138" s="124" t="s">
         <v>83</v>
       </c>
@@ -5039,8 +5106,8 @@
         <v>86</v>
       </c>
       <c r="E138" s="126">
-        <f>G129+G131</f>
-        <v>24838.2</v>
+        <f>G129</f>
+        <v>7546</v>
       </c>
       <c r="F138" s="125" t="s">
         <v>87</v>
@@ -5049,12 +5116,12 @@
       <c r="H138" s="125"/>
       <c r="I138" s="125"/>
     </row>
-    <row r="139" spans="2:12" s="123" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:12" s="123" customFormat="1" ht="17" thickBot="1">
       <c r="C139" s="125"/>
       <c r="D139" s="125"/>
       <c r="E139" s="125">
         <f>E138*1000000</f>
-        <v>24838200000</v>
+        <v>7546000000</v>
       </c>
       <c r="F139" s="125" t="s">
         <v>86</v>
@@ -5063,14 +5130,14 @@
       <c r="H139" s="125"/>
       <c r="I139" s="125"/>
     </row>
-    <row r="140" spans="2:12" s="123" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:12" s="123" customFormat="1" ht="17" thickBot="1">
       <c r="C140" s="125"/>
       <c r="D140" s="125" t="s">
         <v>88</v>
       </c>
       <c r="E140" s="127">
-        <f>G130+G132</f>
-        <v>70369</v>
+        <f>G130</f>
+        <v>68900</v>
       </c>
       <c r="F140" s="125" t="s">
         <v>89</v>
@@ -5079,12 +5146,12 @@
       <c r="H140" s="125"/>
       <c r="I140" s="125"/>
     </row>
-    <row r="141" spans="2:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:12" s="123" customFormat="1">
       <c r="C141" s="125"/>
       <c r="D141" s="125"/>
       <c r="E141" s="128">
         <f>E140*1000000</f>
-        <v>70369000000</v>
+        <v>68900000000</v>
       </c>
       <c r="F141" s="125" t="s">
         <v>88</v>
@@ -5093,7 +5160,7 @@
       <c r="H141" s="125"/>
       <c r="I141" s="125"/>
     </row>
-    <row r="142" spans="2:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:12" s="123" customFormat="1">
       <c r="C142" s="125"/>
       <c r="D142" s="125"/>
       <c r="E142" s="125"/>
@@ -5102,12 +5169,12 @@
       <c r="H142" s="125"/>
       <c r="I142" s="125"/>
     </row>
-    <row r="143" spans="2:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:12" s="123" customFormat="1">
       <c r="C143" s="125"/>
       <c r="D143" s="125"/>
       <c r="E143" s="129">
         <f>E141/E139</f>
-        <v>2.8330957959916581</v>
+        <v>9.1306652531142323</v>
       </c>
       <c r="F143" s="125" t="s">
         <v>90</v>
@@ -5116,7 +5183,7 @@
       <c r="H143" s="125"/>
       <c r="I143" s="125"/>
     </row>
-    <row r="144" spans="2:12" s="123" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:12" s="123" customFormat="1">
       <c r="C144" s="125"/>
       <c r="D144" s="125"/>
       <c r="E144" s="125"/>
@@ -5125,7 +5192,7 @@
       <c r="H144" s="125"/>
       <c r="I144" s="125"/>
     </row>
-    <row r="145" spans="3:9" s="123" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="3:9" s="123" customFormat="1">
       <c r="C145" s="125"/>
       <c r="D145" s="125"/>
       <c r="E145" s="125"/>
@@ -5134,7 +5201,7 @@
       <c r="H145" s="125"/>
       <c r="I145" s="125"/>
     </row>
-    <row r="146" spans="3:9" s="123" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="3:9" s="123" customFormat="1">
       <c r="C146" s="125"/>
       <c r="D146" s="125"/>
       <c r="E146" s="125"/>
@@ -5143,26 +5210,25 @@
       <c r="H146" s="125"/>
       <c r="I146" s="125"/>
     </row>
-    <row r="147" spans="3:9" s="123" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="3:9" s="123" customFormat="1">
       <c r="C147" s="125"/>
-      <c r="D147" s="125">
-        <f>[2]Dashboard!C101</f>
-        <v>0</v>
+      <c r="D147" s="146" t="s">
+        <v>81</v>
       </c>
       <c r="E147" s="125">
-        <f>I123*E143</f>
-        <v>0.69010554155563841</v>
+        <f>I121*E143</f>
+        <v>1.0792748526139753</v>
       </c>
       <c r="F147" s="125" t="s">
         <v>91</v>
       </c>
       <c r="G147" s="125"/>
-      <c r="H147" s="139" t="s">
+      <c r="H147" s="130" t="s">
         <v>103</v>
       </c>
       <c r="I147" s="125"/>
     </row>
-    <row r="148" spans="3:9" s="123" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="3:9" s="123" customFormat="1">
       <c r="C148" s="125"/>
       <c r="D148" s="125"/>
       <c r="E148" s="125"/>
@@ -5171,7 +5237,7 @@
       <c r="H148" s="90"/>
       <c r="I148" s="125"/>
     </row>
-    <row r="149" spans="3:9" s="123" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="3:9" s="123" customFormat="1">
       <c r="C149" s="125"/>
       <c r="D149" s="125"/>
       <c r="E149" s="125"/>
@@ -5180,14 +5246,26 @@
       <c r="H149" s="90"/>
       <c r="I149" s="125"/>
     </row>
-    <row r="150" spans="3:9" s="123" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="3:9" s="123" customFormat="1">
       <c r="C150" s="125"/>
       <c r="D150" s="125"/>
-      <c r="E150" s="125"/>
+      <c r="E150" s="145" t="s">
+        <v>115</v>
+      </c>
       <c r="F150" s="125"/>
       <c r="G150" s="125"/>
       <c r="H150" s="125"/>
       <c r="I150" s="125"/>
+    </row>
+    <row r="151" spans="3:9">
+      <c r="E151" s="145" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="152" spans="3:9">
+      <c r="E152" s="145" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
